--- a/Invoice_thrive_#4_April.xlsx
+++ b/Invoice_thrive_#4_April.xlsx
@@ -8,25 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\ThriveAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091C0E18-B344-4CF5-B523-5AEA1F99C25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{562ABE21-FDEB-46BE-B460-958C067DDB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{568EF31D-8985-4852-83DE-9C10A9DD644C}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="22200" windowHeight="12495" xr2:uid="{568EF31D-8985-4852-83DE-9C10A9DD644C}"/>
   </bookViews>
   <sheets>
-    <sheet name="April by Resource" sheetId="19" r:id="rId1"/>
-    <sheet name="March by " sheetId="18" r:id="rId2"/>
-    <sheet name="March by Resource" sheetId="17" r:id="rId3"/>
-    <sheet name="Invoice #1 Jan" sheetId="15" r:id="rId4"/>
-    <sheet name="Invoice #2 Feb" sheetId="12" r:id="rId5"/>
-    <sheet name="Invoice #1 Jan " sheetId="2" state="hidden" r:id="rId6"/>
-    <sheet name="Invoice #3 March" sheetId="16" r:id="rId7"/>
-    <sheet name="Breakout Hours" sheetId="1" r:id="rId8"/>
-    <sheet name="Expense" sheetId="11" r:id="rId9"/>
-    <sheet name="Jan by Resource" sheetId="14" r:id="rId10"/>
-    <sheet name="Feb by Resource" sheetId="13" r:id="rId11"/>
+    <sheet name="Breakout Hours" sheetId="1" r:id="rId1"/>
+    <sheet name="Invoice #4 April" sheetId="20" r:id="rId2"/>
+    <sheet name="April by Resource" sheetId="19" r:id="rId3"/>
+    <sheet name="february by resource" sheetId="21" r:id="rId4"/>
+    <sheet name="March by Resource" sheetId="17" r:id="rId5"/>
+    <sheet name="March by " sheetId="18" r:id="rId6"/>
+    <sheet name="Invoice #1 Jan" sheetId="15" r:id="rId7"/>
+    <sheet name="Invoice #2 Feb" sheetId="12" r:id="rId8"/>
+    <sheet name="Invoice #1 Jan " sheetId="2" state="hidden" r:id="rId9"/>
+    <sheet name="Invoice #3 March" sheetId="16" r:id="rId10"/>
+    <sheet name="Expense" sheetId="11" r:id="rId11"/>
+    <sheet name="Jan by Resource" sheetId="14" r:id="rId12"/>
+    <sheet name="Feb by Resource" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Breakout Hours'!$B$1:$BV$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Breakout Hours'!$B$1:$BV$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="86">
   <si>
     <t>hrs</t>
   </si>
@@ -278,6 +280,33 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>LLM / Vanna.ai accounts / cousera</t>
+  </si>
+  <si>
+    <t>ground Truth, db discovery, sql generation, vanna training</t>
+  </si>
+  <si>
+    <t>LLM pass through integration,  NLP similarity function , LLM registry</t>
+  </si>
+  <si>
+    <t>ground Truth, db discovery, sql generation, vanna training, sketch, pygwalker</t>
+  </si>
+  <si>
+    <t>LLM pass through integration,  NLP similarity function , LLM registry, sketch, pygwalker</t>
+  </si>
+  <si>
+    <t>Ethical Guidelines - integration to chatbot, domain topic classifier</t>
+  </si>
+  <si>
+    <t>Autogen Ai agents, Pandas cleanup, story boarding</t>
+  </si>
+  <si>
+    <t>ground Truth, db discovery, sql generation, vanna training, sketch, pygwalker, storyboard</t>
   </si>
 </sst>
 </file>
@@ -586,7 +615,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -729,6 +758,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1045,549 +1101,2253 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F092A5F9-C491-4F64-AB23-301AFF5D23D2}">
-  <dimension ref="A1:AW194"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC50730-173D-45A5-A218-D63A89BFD627}">
+  <dimension ref="A1:CA81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="AN65" sqref="AN65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="10" width="18" customWidth="1"/>
-    <col min="13" max="49" width="9.140625" style="3"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="95.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="37" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="3.7109375" style="3" customWidth="1"/>
+    <col min="39" max="74" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="55" t="s">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="32">
+        <v>45665</v>
+      </c>
+      <c r="C2" s="20">
+        <v>24</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="32">
+        <v>45665</v>
+      </c>
+      <c r="C3" s="20">
+        <v>16</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="41" t="s">
+      <c r="E3" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="32">
+        <v>45665</v>
+      </c>
+      <c r="C4" s="20">
+        <v>4</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="32">
+        <v>45665</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41" t="s">
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="32">
+        <v>45665</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="33">
+        <v>45672</v>
+      </c>
+      <c r="C7" s="24">
+        <v>24</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="33">
+        <v>45672</v>
+      </c>
+      <c r="C8" s="24">
+        <v>22</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="33">
+        <v>45672</v>
+      </c>
+      <c r="C9" s="24">
+        <v>6</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="33">
+        <v>45672</v>
+      </c>
+      <c r="C10" s="24">
+        <v>2</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="33">
+        <v>45672</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="34">
+        <v>45679</v>
+      </c>
+      <c r="C12" s="26">
+        <v>16</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="34">
+        <v>45679</v>
+      </c>
+      <c r="C13" s="26">
+        <v>19</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="34">
+        <v>45679</v>
+      </c>
+      <c r="C14" s="26">
+        <v>2</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="34">
+        <v>45679</v>
+      </c>
+      <c r="C15" s="26">
+        <v>2</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="34">
+        <v>45679</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="33">
+        <v>45679</v>
+      </c>
+      <c r="C17" s="24">
+        <v>12</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="33">
+        <v>45679</v>
+      </c>
+      <c r="C18" s="24">
+        <v>17</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="33">
+        <v>45679</v>
+      </c>
+      <c r="C19" s="24">
+        <v>2</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="33">
+        <v>45679</v>
+      </c>
+      <c r="C20" s="24">
+        <v>8</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="33">
+        <v>45679</v>
+      </c>
+      <c r="C21" s="24">
+        <v>0</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="25"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="18">
+        <f>SUM(C2:C21)</f>
+        <v>176</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="20">
+        <v>24</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="20">
+        <v>20</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="20">
+        <v>15</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="20">
+        <v>4</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="33">
+        <v>45703</v>
+      </c>
+      <c r="C27" s="24">
+        <v>21</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="33">
+        <v>45704</v>
+      </c>
+      <c r="C28" s="24">
+        <v>7</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="33">
+        <v>45705</v>
+      </c>
+      <c r="C29" s="24">
+        <v>0</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="33">
+        <v>45706</v>
+      </c>
+      <c r="C30" s="24">
+        <v>5</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="34">
+        <v>45679</v>
+      </c>
+      <c r="C31" s="26">
+        <v>24</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="34">
+        <v>45679</v>
+      </c>
+      <c r="C32" s="26">
+        <v>7</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="34">
+        <v>45679</v>
+      </c>
+      <c r="C33" s="26">
+        <v>9</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="34">
+        <v>45679</v>
+      </c>
+      <c r="C34" s="26">
+        <v>4</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="33">
+        <v>45679</v>
+      </c>
+      <c r="C35" s="24">
+        <v>24</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="33">
+        <v>45679</v>
+      </c>
+      <c r="C36" s="24">
+        <v>8</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="33">
+        <v>45679</v>
+      </c>
+      <c r="C37" s="24">
+        <v>10</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="33">
+        <v>45679</v>
+      </c>
+      <c r="C38" s="24">
+        <v>4</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="35"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="18">
+        <f>SUM(C23:C38)</f>
+        <v>186</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="20">
+        <v>12</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="20">
+        <v>26</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="20">
         <v>11</v>
       </c>
-      <c r="J1" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="42" t="s">
+      <c r="D42" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="20">
+        <v>12</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="20">
+        <v>8</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="24">
+        <v>12</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="24">
+        <v>14</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="24">
+        <v>12</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="24">
+        <v>10</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="24">
+        <v>6</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="26">
+        <v>12</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A51" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="26">
+        <v>8</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A52" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="20">
+        <v>12</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A53" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="26">
+        <v>8</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A54" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="26">
+        <v>8</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="24">
+        <v>12</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="24">
+        <v>3</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A57" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="24">
+        <v>6</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A58" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="24">
+        <v>8</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:79" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="24">
+        <v>12</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G59" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="H59" s="24">
+        <v>4</v>
+      </c>
+      <c r="I59" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="BW59" s="3"/>
+      <c r="BX59" s="3"/>
+      <c r="BY59" s="3"/>
+      <c r="BZ59" s="3"/>
+      <c r="CA59" s="3"/>
+    </row>
+    <row r="60" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A60" s="35"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="18">
+        <f>SUM(C40:C59)</f>
+        <v>212</v>
+      </c>
+      <c r="D60" s="18"/>
+      <c r="E60" s="19"/>
+    </row>
+    <row r="61" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A61" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="65">
+        <v>13</v>
+      </c>
+      <c r="D61" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="66" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A62" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="65">
+        <v>18</v>
+      </c>
+      <c r="D62" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A63" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" s="65">
+        <v>4</v>
+      </c>
+      <c r="D63" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A64" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="65">
+        <v>7</v>
+      </c>
+      <c r="D64" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64" s="66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="65">
+        <v>6</v>
+      </c>
+      <c r="D65" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="69">
+        <v>22</v>
+      </c>
+      <c r="D66" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="70" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="69">
+        <v>10</v>
+      </c>
+      <c r="D67" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" s="69">
+        <v>6</v>
+      </c>
+      <c r="D68" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="E68" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="69">
+        <v>4</v>
+      </c>
+      <c r="D69" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="69">
+        <v>6</v>
+      </c>
+      <c r="D70" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" s="65">
+        <v>22</v>
+      </c>
+      <c r="D71" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="66" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="65">
+        <v>13</v>
+      </c>
+      <c r="D72" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="65">
+        <v>3</v>
+      </c>
+      <c r="D73" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E73" s="66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" s="65">
+        <v>4</v>
+      </c>
+      <c r="D74" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="65">
+        <v>6</v>
+      </c>
+      <c r="D75" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" s="66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="69">
+        <v>10</v>
+      </c>
+      <c r="D76" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" s="69">
+        <v>11</v>
+      </c>
+      <c r="D77" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="71" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" s="69">
+        <v>4</v>
+      </c>
+      <c r="D78" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" s="69">
+        <v>6</v>
+      </c>
+      <c r="D79" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" s="69">
+        <v>19</v>
+      </c>
+      <c r="D80" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="E80" s="71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="35"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="18">
+        <f>SUM(C61:C80)</f>
+        <v>194</v>
+      </c>
+      <c r="D81" s="18"/>
+      <c r="E81" s="19"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:BV1" xr:uid="{8BC50730-173D-45A5-A218-D63A89BFD627}"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB91256-52C7-4ED7-82AD-AD5C19A080A0}">
+  <dimension ref="A1:AN152"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="68.28515625" style="2" customWidth="1"/>
+    <col min="7" max="40" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" s="61">
+        <v>45750</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+    </row>
+    <row r="4" spans="1:40" s="1" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+    </row>
+    <row r="5" spans="1:40" s="6" customFormat="1" ht="40.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="37">
+        <v>212</v>
+      </c>
+      <c r="C5" s="8">
+        <f>B5*150</f>
+        <v>31800</v>
+      </c>
+      <c r="D5" s="22">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="8">
+        <f>C5+D5</f>
+        <v>32800</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+    </row>
+    <row r="6" spans="1:40" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="39">
+        <f>SUM(B5:B5)</f>
+        <v>212</v>
+      </c>
+      <c r="C6" s="11">
+        <f>SUM(C5:C5)</f>
+        <v>31800</v>
+      </c>
+      <c r="D6" s="23">
+        <f>SUM(D5:D5)</f>
+        <v>1000</v>
+      </c>
+      <c r="E6" s="11">
+        <f>C6+D6</f>
+        <v>32800</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+    </row>
+    <row r="7" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F94" s="4"/>
+    </row>
+    <row r="95" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F99" s="4"/>
+    </row>
+    <row r="100" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F101" s="4"/>
+    </row>
+    <row r="102" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F112" s="4"/>
+    </row>
+    <row r="113" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F113" s="4"/>
+    </row>
+    <row r="114" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F114" s="4"/>
+    </row>
+    <row r="115" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F115" s="4"/>
+    </row>
+    <row r="116" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F117" s="4"/>
+    </row>
+    <row r="118" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F120" s="4"/>
+    </row>
+    <row r="121" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F121" s="4"/>
+    </row>
+    <row r="122" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F122" s="4"/>
+    </row>
+    <row r="123" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F123" s="4"/>
+    </row>
+    <row r="124" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F124" s="4"/>
+    </row>
+    <row r="125" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F125" s="4"/>
+    </row>
+    <row r="126" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F126" s="4"/>
+    </row>
+    <row r="127" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F127" s="4"/>
+    </row>
+    <row r="128" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F128" s="4"/>
+    </row>
+    <row r="129" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F129" s="4"/>
+    </row>
+    <row r="130" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F130" s="4"/>
+    </row>
+    <row r="131" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F131" s="4"/>
+    </row>
+    <row r="132" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F132" s="4"/>
+    </row>
+    <row r="133" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F133" s="4"/>
+    </row>
+    <row r="134" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F134" s="4"/>
+    </row>
+    <row r="135" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F135" s="4"/>
+    </row>
+    <row r="136" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F136" s="4"/>
+    </row>
+    <row r="137" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F137" s="4"/>
+    </row>
+    <row r="138" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F138" s="4"/>
+    </row>
+    <row r="139" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F139" s="4"/>
+    </row>
+    <row r="140" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F140" s="4"/>
+    </row>
+    <row r="141" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F141" s="4"/>
+    </row>
+    <row r="142" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F142" s="4"/>
+    </row>
+    <row r="143" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F143" s="4"/>
+    </row>
+    <row r="144" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F144" s="4"/>
+    </row>
+    <row r="145" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F145" s="4"/>
+    </row>
+    <row r="146" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F146" s="4"/>
+    </row>
+    <row r="147" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F147" s="4"/>
+    </row>
+    <row r="148" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F148" s="4"/>
+    </row>
+    <row r="149" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F149" s="4"/>
+    </row>
+    <row r="150" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F150" s="4"/>
+    </row>
+    <row r="151" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F151" s="4"/>
+    </row>
+    <row r="152" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F152" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E962D863-D586-4CE1-B627-42FFC8A5B6B6}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="70.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="28">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="28">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="28">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="28">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="28">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="28">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30">
+        <f>SUM(C1:C6)</f>
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="44">
-        <v>13</v>
-      </c>
-      <c r="D2" s="44">
-        <v>18</v>
-      </c>
-      <c r="E2" s="44">
-        <v>7</v>
-      </c>
-      <c r="F2" s="44">
-        <v>4</v>
-      </c>
-      <c r="G2" s="44">
-        <v>6</v>
-      </c>
-      <c r="H2" s="44">
-        <f>SUM(C2:G2)</f>
-        <v>48</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44">
-        <v>4</v>
-      </c>
-      <c r="L2" s="44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="28">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="44">
-        <v>22</v>
-      </c>
-      <c r="D3" s="44">
-        <v>10</v>
-      </c>
-      <c r="E3" s="44">
-        <v>6</v>
-      </c>
-      <c r="F3" s="44">
-        <v>4</v>
-      </c>
-      <c r="G3" s="44">
-        <v>6</v>
-      </c>
-      <c r="H3" s="44">
-        <f t="shared" ref="H3:H5" si="0">SUM(C3:G3)</f>
-        <v>48</v>
-      </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44">
-        <v>4</v>
-      </c>
-      <c r="L3" s="44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="42" t="s">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="28">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="44">
-        <v>22</v>
-      </c>
-      <c r="D4" s="44">
-        <v>13</v>
-      </c>
-      <c r="E4" s="44">
-        <v>3</v>
-      </c>
-      <c r="F4" s="44">
-        <v>4</v>
-      </c>
-      <c r="G4" s="44">
-        <v>6</v>
-      </c>
-      <c r="H4" s="44">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44">
-        <v>4</v>
-      </c>
-      <c r="L4" s="44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="42" t="s">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="28">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="44">
-        <v>10</v>
-      </c>
-      <c r="D5" s="44">
-        <v>11</v>
-      </c>
-      <c r="E5" s="44">
-        <v>19</v>
-      </c>
-      <c r="F5" s="44">
-        <v>4</v>
-      </c>
-      <c r="G5" s="44">
-        <v>6</v>
-      </c>
-      <c r="H5" s="44">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="I5" s="44">
-        <v>1000</v>
-      </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44">
-        <v>4</v>
-      </c>
-      <c r="L5" s="44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="45">
-        <f>SUM(C2:C5)</f>
-        <v>67</v>
-      </c>
-      <c r="D6" s="45">
-        <f t="shared" ref="D6:L6" si="1">SUM(D2:D5)</f>
-        <v>52</v>
-      </c>
-      <c r="E6" s="45">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="F6" s="45">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="G6" s="45">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="H6" s="45">
-        <f t="shared" si="1"/>
-        <v>194</v>
-      </c>
-      <c r="I6" s="45">
-        <f>SUM(I2:I5)</f>
-        <v>1000</v>
-      </c>
-      <c r="J6" s="49"/>
-      <c r="K6" s="45">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="L6" s="45">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="46">
-        <f>C6*150</f>
-        <v>10050</v>
-      </c>
-      <c r="D7" s="46">
-        <f>D6*150</f>
-        <v>7800</v>
-      </c>
-      <c r="E7" s="46">
-        <f t="shared" ref="E7:G7" si="2">E6*150</f>
-        <v>5250</v>
-      </c>
-      <c r="F7" s="46">
-        <f t="shared" si="2"/>
-        <v>2400</v>
-      </c>
-      <c r="G7" s="46">
-        <f t="shared" si="2"/>
-        <v>3600</v>
-      </c>
-      <c r="H7" s="47">
-        <f>H6/4</f>
-        <v>48.5</v>
-      </c>
-      <c r="I7" s="47">
-        <f>I6</f>
-        <v>1000</v>
-      </c>
-      <c r="J7" s="57">
-        <f>SUM(C7:I7)</f>
-        <v>30148.5</v>
-      </c>
-      <c r="K7" s="48">
-        <f>K6*25</f>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="28">
         <v>400</v>
       </c>
-      <c r="L7" s="44">
-        <f>L6*25</f>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30">
+        <f>SUM(C8:C11)</f>
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="28">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="28">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="28">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="28">
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="46">
-        <f>C6*150</f>
-        <v>10050</v>
-      </c>
-      <c r="D8" s="46">
-        <f>D6*100</f>
-        <v>5200</v>
-      </c>
-      <c r="E8" s="46">
-        <f>E6*75</f>
-        <v>2625</v>
-      </c>
-      <c r="F8" s="46">
-        <f>F6*75</f>
-        <v>1200</v>
-      </c>
-      <c r="G8" s="46">
-        <f>G6*75</f>
-        <v>1800</v>
-      </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="46">
-        <f>C8-C7</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="46">
-        <f t="shared" ref="D9:G9" si="3">D8-D7</f>
-        <v>-2600</v>
-      </c>
-      <c r="E9" s="46">
-        <f t="shared" si="3"/>
-        <v>-2625</v>
-      </c>
-      <c r="F9" s="46">
-        <f t="shared" si="3"/>
-        <v>-1200</v>
-      </c>
-      <c r="G9" s="46">
-        <f t="shared" si="3"/>
-        <v>-1800</v>
-      </c>
-      <c r="H9" s="46">
-        <f>SUM(C9:G9)*-1</f>
-        <v>8225</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="57">
-        <f>H9+C7</f>
-        <v>18275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="3">
-        <f>E18*4*48</f>
-        <v>28800</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="3">
-        <f>E19*4</f>
-        <v>115200</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30">
+        <f>SUM(C13:C16)</f>
+        <v>1098</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61B9437-EDC6-4740-9875-F861394EAF32}">
   <dimension ref="A1:AV194"/>
   <sheetViews>
@@ -2058,7 +3818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEE8997-8A6D-4741-BA29-FA5BE3594C08}">
   <dimension ref="A1:AV194"/>
   <sheetViews>
@@ -2527,6 +4287,2301 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D926FC04-A4EF-4D44-A49F-454CA797265A}">
+  <dimension ref="A1:AN152"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="68.28515625" style="2" customWidth="1"/>
+    <col min="7" max="40" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" s="61">
+        <v>45750</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+    </row>
+    <row r="4" spans="1:40" s="1" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+    </row>
+    <row r="5" spans="1:40" s="6" customFormat="1" ht="40.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="37">
+        <v>194</v>
+      </c>
+      <c r="C5" s="8">
+        <f>B5*150</f>
+        <v>29100</v>
+      </c>
+      <c r="D5" s="22">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="8">
+        <f>C5+D5</f>
+        <v>30100</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+    </row>
+    <row r="6" spans="1:40" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="39">
+        <f>SUM(B5:B5)</f>
+        <v>194</v>
+      </c>
+      <c r="C6" s="11">
+        <f>SUM(C5:C5)</f>
+        <v>29100</v>
+      </c>
+      <c r="D6" s="23">
+        <f>SUM(D5:D5)</f>
+        <v>1000</v>
+      </c>
+      <c r="E6" s="11">
+        <f>C6+D6</f>
+        <v>30100</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+    </row>
+    <row r="7" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F94" s="4"/>
+    </row>
+    <row r="95" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F99" s="4"/>
+    </row>
+    <row r="100" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F101" s="4"/>
+    </row>
+    <row r="102" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F112" s="4"/>
+    </row>
+    <row r="113" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F113" s="4"/>
+    </row>
+    <row r="114" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F114" s="4"/>
+    </row>
+    <row r="115" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F115" s="4"/>
+    </row>
+    <row r="116" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F117" s="4"/>
+    </row>
+    <row r="118" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F120" s="4"/>
+    </row>
+    <row r="121" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F121" s="4"/>
+    </row>
+    <row r="122" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F122" s="4"/>
+    </row>
+    <row r="123" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F123" s="4"/>
+    </row>
+    <row r="124" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F124" s="4"/>
+    </row>
+    <row r="125" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F125" s="4"/>
+    </row>
+    <row r="126" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F126" s="4"/>
+    </row>
+    <row r="127" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F127" s="4"/>
+    </row>
+    <row r="128" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F128" s="4"/>
+    </row>
+    <row r="129" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F129" s="4"/>
+    </row>
+    <row r="130" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F130" s="4"/>
+    </row>
+    <row r="131" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F131" s="4"/>
+    </row>
+    <row r="132" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F132" s="4"/>
+    </row>
+    <row r="133" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F133" s="4"/>
+    </row>
+    <row r="134" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F134" s="4"/>
+    </row>
+    <row r="135" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F135" s="4"/>
+    </row>
+    <row r="136" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F136" s="4"/>
+    </row>
+    <row r="137" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F137" s="4"/>
+    </row>
+    <row r="138" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F138" s="4"/>
+    </row>
+    <row r="139" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F139" s="4"/>
+    </row>
+    <row r="140" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F140" s="4"/>
+    </row>
+    <row r="141" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F141" s="4"/>
+    </row>
+    <row r="142" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F142" s="4"/>
+    </row>
+    <row r="143" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F143" s="4"/>
+    </row>
+    <row r="144" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F144" s="4"/>
+    </row>
+    <row r="145" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F145" s="4"/>
+    </row>
+    <row r="146" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F146" s="4"/>
+    </row>
+    <row r="147" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F147" s="4"/>
+    </row>
+    <row r="148" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F148" s="4"/>
+    </row>
+    <row r="149" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F149" s="4"/>
+    </row>
+    <row r="150" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F150" s="4"/>
+    </row>
+    <row r="151" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F151" s="4"/>
+    </row>
+    <row r="152" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F152" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F092A5F9-C491-4F64-AB23-301AFF5D23D2}">
+  <dimension ref="A1:AW194"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="10" width="18" customWidth="1"/>
+    <col min="13" max="49" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="44">
+        <v>13</v>
+      </c>
+      <c r="D2" s="44">
+        <v>18</v>
+      </c>
+      <c r="E2" s="44">
+        <v>7</v>
+      </c>
+      <c r="F2" s="44">
+        <v>4</v>
+      </c>
+      <c r="G2" s="44">
+        <v>6</v>
+      </c>
+      <c r="H2" s="44">
+        <f>SUM(C2:G2)</f>
+        <v>48</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44">
+        <v>4</v>
+      </c>
+      <c r="L2" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="44">
+        <v>22</v>
+      </c>
+      <c r="D3" s="44">
+        <v>10</v>
+      </c>
+      <c r="E3" s="44">
+        <v>6</v>
+      </c>
+      <c r="F3" s="44">
+        <v>4</v>
+      </c>
+      <c r="G3" s="44">
+        <v>6</v>
+      </c>
+      <c r="H3" s="44">
+        <f t="shared" ref="H3:H5" si="0">SUM(C3:G3)</f>
+        <v>48</v>
+      </c>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44">
+        <v>4</v>
+      </c>
+      <c r="L3" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="44">
+        <v>22</v>
+      </c>
+      <c r="D4" s="44">
+        <v>13</v>
+      </c>
+      <c r="E4" s="44">
+        <v>3</v>
+      </c>
+      <c r="F4" s="44">
+        <v>4</v>
+      </c>
+      <c r="G4" s="44">
+        <v>6</v>
+      </c>
+      <c r="H4" s="44">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44">
+        <v>4</v>
+      </c>
+      <c r="L4" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="44">
+        <v>10</v>
+      </c>
+      <c r="D5" s="44">
+        <v>11</v>
+      </c>
+      <c r="E5" s="44">
+        <v>19</v>
+      </c>
+      <c r="F5" s="44">
+        <v>4</v>
+      </c>
+      <c r="G5" s="44">
+        <v>6</v>
+      </c>
+      <c r="H5" s="44">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I5" s="44">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44">
+        <v>4</v>
+      </c>
+      <c r="L5" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="45">
+        <f>SUM(C2:C5)</f>
+        <v>67</v>
+      </c>
+      <c r="D6" s="45">
+        <f t="shared" ref="D6:L6" si="1">SUM(D2:D5)</f>
+        <v>52</v>
+      </c>
+      <c r="E6" s="45">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="F6" s="45">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G6" s="45">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H6" s="45">
+        <f t="shared" si="1"/>
+        <v>194</v>
+      </c>
+      <c r="I6" s="45">
+        <f>SUM(I2:I5)</f>
+        <v>1000</v>
+      </c>
+      <c r="J6" s="57">
+        <f>H6*150 +I6</f>
+        <v>30100</v>
+      </c>
+      <c r="K6" s="45">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="L6" s="45">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="46">
+        <f>C6*150</f>
+        <v>10050</v>
+      </c>
+      <c r="D7" s="46">
+        <f>D6*150</f>
+        <v>7800</v>
+      </c>
+      <c r="E7" s="46">
+        <f t="shared" ref="E7:G7" si="2">E6*150</f>
+        <v>5250</v>
+      </c>
+      <c r="F7" s="46">
+        <f t="shared" si="2"/>
+        <v>2400</v>
+      </c>
+      <c r="G7" s="46">
+        <f t="shared" si="2"/>
+        <v>3600</v>
+      </c>
+      <c r="H7" s="47">
+        <f>H6/4</f>
+        <v>48.5</v>
+      </c>
+      <c r="I7" s="47">
+        <f>I6</f>
+        <v>1000</v>
+      </c>
+      <c r="J7" s="57">
+        <f>SUM(C7:I7)</f>
+        <v>30148.5</v>
+      </c>
+      <c r="K7" s="48">
+        <f>K6*25</f>
+        <v>400</v>
+      </c>
+      <c r="L7" s="44">
+        <f>L6*25</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="46">
+        <f>C6*150</f>
+        <v>10050</v>
+      </c>
+      <c r="D8" s="46">
+        <f>D6*100</f>
+        <v>5200</v>
+      </c>
+      <c r="E8" s="46">
+        <f>E6*75</f>
+        <v>2625</v>
+      </c>
+      <c r="F8" s="46">
+        <f>F6*75</f>
+        <v>1200</v>
+      </c>
+      <c r="G8" s="46">
+        <f>G6*75</f>
+        <v>1800</v>
+      </c>
+      <c r="H8" s="54"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="46">
+        <f>C8-C7</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="46">
+        <f t="shared" ref="D9:G9" si="3">D8-D7</f>
+        <v>-2600</v>
+      </c>
+      <c r="E9" s="46">
+        <f t="shared" si="3"/>
+        <v>-2625</v>
+      </c>
+      <c r="F9" s="46">
+        <f t="shared" si="3"/>
+        <v>-1200</v>
+      </c>
+      <c r="G9" s="46">
+        <f t="shared" si="3"/>
+        <v>-1800</v>
+      </c>
+      <c r="H9" s="46">
+        <f>SUM(C9:G9)*-1</f>
+        <v>8225</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="57">
+        <f>H9+C7</f>
+        <v>18275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="3">
+        <f>E18*4*48</f>
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="3">
+        <f>E19*4</f>
+        <v>115200</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450DE6DA-E187-4364-898C-1799625CF10F}">
+  <dimension ref="A1:AW194"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="10" width="18" customWidth="1"/>
+    <col min="13" max="49" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="44">
+        <v>12</v>
+      </c>
+      <c r="D2" s="44">
+        <v>26</v>
+      </c>
+      <c r="E2" s="44">
+        <v>12</v>
+      </c>
+      <c r="F2" s="44">
+        <v>11</v>
+      </c>
+      <c r="G2" s="44">
+        <v>8</v>
+      </c>
+      <c r="H2" s="44">
+        <f>SUM(C2:G2)</f>
+        <v>69</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44">
+        <v>4</v>
+      </c>
+      <c r="L2" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="44">
+        <v>12</v>
+      </c>
+      <c r="D3" s="44">
+        <v>14</v>
+      </c>
+      <c r="E3" s="44">
+        <v>12</v>
+      </c>
+      <c r="F3" s="44">
+        <v>8</v>
+      </c>
+      <c r="G3" s="44">
+        <v>6</v>
+      </c>
+      <c r="H3" s="44">
+        <f t="shared" ref="H3:H5" si="0">SUM(C3:G3)</f>
+        <v>52</v>
+      </c>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44">
+        <v>4</v>
+      </c>
+      <c r="L3" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="44">
+        <v>12</v>
+      </c>
+      <c r="D4" s="44">
+        <v>8</v>
+      </c>
+      <c r="E4" s="44">
+        <v>12</v>
+      </c>
+      <c r="F4" s="44">
+        <v>10</v>
+      </c>
+      <c r="G4" s="44">
+        <v>8</v>
+      </c>
+      <c r="H4" s="44">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44">
+        <v>4</v>
+      </c>
+      <c r="L4" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="44">
+        <v>15</v>
+      </c>
+      <c r="D5" s="44">
+        <v>3</v>
+      </c>
+      <c r="E5" s="44">
+        <v>9</v>
+      </c>
+      <c r="F5" s="44">
+        <v>6</v>
+      </c>
+      <c r="G5" s="44">
+        <v>8</v>
+      </c>
+      <c r="H5" s="44">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="I5" s="44">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44">
+        <v>4</v>
+      </c>
+      <c r="L5" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="45">
+        <f>SUM(C2:C5)</f>
+        <v>51</v>
+      </c>
+      <c r="D6" s="45">
+        <f t="shared" ref="D6:L6" si="1">SUM(D2:D5)</f>
+        <v>51</v>
+      </c>
+      <c r="E6" s="45">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="F6" s="45">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G6" s="45">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H6" s="45">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="I6" s="45">
+        <f>SUM(I2:I5)</f>
+        <v>1000</v>
+      </c>
+      <c r="J6" s="49"/>
+      <c r="K6" s="45">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="L6" s="45">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="46">
+        <f>C6*150</f>
+        <v>7650</v>
+      </c>
+      <c r="D7" s="46">
+        <f>D6*150</f>
+        <v>7650</v>
+      </c>
+      <c r="E7" s="46">
+        <f t="shared" ref="E7:G7" si="2">E6*150</f>
+        <v>6750</v>
+      </c>
+      <c r="F7" s="46">
+        <f t="shared" si="2"/>
+        <v>5250</v>
+      </c>
+      <c r="G7" s="46">
+        <f t="shared" si="2"/>
+        <v>4500</v>
+      </c>
+      <c r="H7" s="47">
+        <f>H6/4</f>
+        <v>53</v>
+      </c>
+      <c r="I7" s="47">
+        <f>I6</f>
+        <v>1000</v>
+      </c>
+      <c r="J7" s="57">
+        <f>SUM(C7:I7)</f>
+        <v>32853</v>
+      </c>
+      <c r="K7" s="48">
+        <f>K6*25</f>
+        <v>400</v>
+      </c>
+      <c r="L7" s="44">
+        <f>L6*25</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="46">
+        <f>C6*150</f>
+        <v>7650</v>
+      </c>
+      <c r="D8" s="46">
+        <f>D6*100</f>
+        <v>5100</v>
+      </c>
+      <c r="E8" s="46">
+        <f>E6*65</f>
+        <v>2925</v>
+      </c>
+      <c r="F8" s="46">
+        <f>F6*75</f>
+        <v>2625</v>
+      </c>
+      <c r="G8" s="46">
+        <f>G6*65</f>
+        <v>1950</v>
+      </c>
+      <c r="H8" s="54"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="46">
+        <f>C8-C7</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="46">
+        <f t="shared" ref="D9:G9" si="3">D8-D7</f>
+        <v>-2550</v>
+      </c>
+      <c r="E9" s="46">
+        <f t="shared" si="3"/>
+        <v>-3825</v>
+      </c>
+      <c r="F9" s="46">
+        <f t="shared" si="3"/>
+        <v>-2625</v>
+      </c>
+      <c r="G9" s="46">
+        <f t="shared" si="3"/>
+        <v>-2550</v>
+      </c>
+      <c r="H9" s="46">
+        <f>SUM(C9:G9)*-1</f>
+        <v>11550</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="57">
+        <f>H9+C7</f>
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="3">
+        <f>E18*4*48</f>
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="3">
+        <f>E19*4</f>
+        <v>115200</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27E419F-9597-4BF4-82BD-00F253910E5F}">
+  <dimension ref="A1:AW194"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="10" width="18" customWidth="1"/>
+    <col min="13" max="49" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="44">
+        <v>12</v>
+      </c>
+      <c r="D2" s="44">
+        <v>26</v>
+      </c>
+      <c r="E2" s="44">
+        <v>12</v>
+      </c>
+      <c r="F2" s="44">
+        <v>11</v>
+      </c>
+      <c r="G2" s="44">
+        <v>8</v>
+      </c>
+      <c r="H2" s="44">
+        <f>SUM(C2:G2)</f>
+        <v>69</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44">
+        <v>4</v>
+      </c>
+      <c r="L2" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="44">
+        <v>12</v>
+      </c>
+      <c r="D3" s="44">
+        <v>14</v>
+      </c>
+      <c r="E3" s="44">
+        <v>12</v>
+      </c>
+      <c r="F3" s="44">
+        <v>8</v>
+      </c>
+      <c r="G3" s="44">
+        <v>6</v>
+      </c>
+      <c r="H3" s="44">
+        <f t="shared" ref="H3:H5" si="0">SUM(C3:G3)</f>
+        <v>52</v>
+      </c>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44">
+        <v>4</v>
+      </c>
+      <c r="L3" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="44">
+        <v>12</v>
+      </c>
+      <c r="D4" s="44">
+        <v>8</v>
+      </c>
+      <c r="E4" s="44">
+        <v>12</v>
+      </c>
+      <c r="F4" s="44">
+        <v>10</v>
+      </c>
+      <c r="G4" s="44">
+        <v>8</v>
+      </c>
+      <c r="H4" s="44">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44">
+        <v>4</v>
+      </c>
+      <c r="L4" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="44">
+        <v>15</v>
+      </c>
+      <c r="D5" s="44">
+        <v>3</v>
+      </c>
+      <c r="E5" s="44">
+        <v>9</v>
+      </c>
+      <c r="F5" s="44">
+        <v>6</v>
+      </c>
+      <c r="G5" s="44">
+        <v>8</v>
+      </c>
+      <c r="H5" s="44">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="I5" s="44">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44">
+        <v>4</v>
+      </c>
+      <c r="L5" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="45">
+        <f>SUM(C2:C5)</f>
+        <v>51</v>
+      </c>
+      <c r="D6" s="45">
+        <f t="shared" ref="D6:L6" si="1">SUM(D2:D5)</f>
+        <v>51</v>
+      </c>
+      <c r="E6" s="45">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="F6" s="45">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G6" s="45">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H6" s="45">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="I6" s="45">
+        <f>SUM(I2:I5)</f>
+        <v>1000</v>
+      </c>
+      <c r="J6" s="49"/>
+      <c r="K6" s="45">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="L6" s="45">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="46">
+        <f>C6*150</f>
+        <v>7650</v>
+      </c>
+      <c r="D7" s="46">
+        <f>D6*150</f>
+        <v>7650</v>
+      </c>
+      <c r="E7" s="46">
+        <f t="shared" ref="E7:G7" si="2">E6*150</f>
+        <v>6750</v>
+      </c>
+      <c r="F7" s="46">
+        <f t="shared" si="2"/>
+        <v>5250</v>
+      </c>
+      <c r="G7" s="46">
+        <f t="shared" si="2"/>
+        <v>4500</v>
+      </c>
+      <c r="H7" s="47">
+        <f>H6/4</f>
+        <v>53</v>
+      </c>
+      <c r="I7" s="47">
+        <f>I6</f>
+        <v>1000</v>
+      </c>
+      <c r="J7" s="57">
+        <f>SUM(C7:I7)</f>
+        <v>32853</v>
+      </c>
+      <c r="K7" s="48">
+        <f>K6*25</f>
+        <v>400</v>
+      </c>
+      <c r="L7" s="44">
+        <f>L6*25</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="46">
+        <f>C6*150</f>
+        <v>7650</v>
+      </c>
+      <c r="D8" s="46">
+        <f>D6*100</f>
+        <v>5100</v>
+      </c>
+      <c r="E8" s="46">
+        <f>E6*65</f>
+        <v>2925</v>
+      </c>
+      <c r="F8" s="46">
+        <f>F6*75</f>
+        <v>2625</v>
+      </c>
+      <c r="G8" s="46">
+        <f>G6*65</f>
+        <v>1950</v>
+      </c>
+      <c r="H8" s="54"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="46">
+        <f>C8-C7</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="46">
+        <f t="shared" ref="D9:G9" si="3">D8-D7</f>
+        <v>-2550</v>
+      </c>
+      <c r="E9" s="46">
+        <f t="shared" si="3"/>
+        <v>-3825</v>
+      </c>
+      <c r="F9" s="46">
+        <f t="shared" si="3"/>
+        <v>-2625</v>
+      </c>
+      <c r="G9" s="46">
+        <f t="shared" si="3"/>
+        <v>-2550</v>
+      </c>
+      <c r="H9" s="46">
+        <f>SUM(C9:G9)*-1</f>
+        <v>11550</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="57">
+        <f>H9+C7</f>
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="3">
+        <f>E18*4*48</f>
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="3">
+        <f>E19*4</f>
+        <v>115200</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0074A76-1C5F-4F40-AD1F-03BA9A08C358}">
   <dimension ref="A1:AV194"/>
   <sheetViews>
@@ -2993,550 +7048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27E419F-9597-4BF4-82BD-00F253910E5F}">
-  <dimension ref="A1:AW194"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="10" width="18" customWidth="1"/>
-    <col min="13" max="49" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="44">
-        <v>12</v>
-      </c>
-      <c r="D2" s="44">
-        <v>26</v>
-      </c>
-      <c r="E2" s="44">
-        <v>12</v>
-      </c>
-      <c r="F2" s="44">
-        <v>11</v>
-      </c>
-      <c r="G2" s="44">
-        <v>8</v>
-      </c>
-      <c r="H2" s="44">
-        <f>SUM(C2:G2)</f>
-        <v>69</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44">
-        <v>4</v>
-      </c>
-      <c r="L2" s="44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="44">
-        <v>12</v>
-      </c>
-      <c r="D3" s="44">
-        <v>14</v>
-      </c>
-      <c r="E3" s="44">
-        <v>12</v>
-      </c>
-      <c r="F3" s="44">
-        <v>8</v>
-      </c>
-      <c r="G3" s="44">
-        <v>6</v>
-      </c>
-      <c r="H3" s="44">
-        <f t="shared" ref="H3:H5" si="0">SUM(C3:G3)</f>
-        <v>52</v>
-      </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44">
-        <v>4</v>
-      </c>
-      <c r="L3" s="44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="44">
-        <v>12</v>
-      </c>
-      <c r="D4" s="44">
-        <v>8</v>
-      </c>
-      <c r="E4" s="44">
-        <v>12</v>
-      </c>
-      <c r="F4" s="44">
-        <v>10</v>
-      </c>
-      <c r="G4" s="44">
-        <v>8</v>
-      </c>
-      <c r="H4" s="44">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44">
-        <v>4</v>
-      </c>
-      <c r="L4" s="44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="44">
-        <v>15</v>
-      </c>
-      <c r="D5" s="44">
-        <v>3</v>
-      </c>
-      <c r="E5" s="44">
-        <v>9</v>
-      </c>
-      <c r="F5" s="44">
-        <v>6</v>
-      </c>
-      <c r="G5" s="44">
-        <v>8</v>
-      </c>
-      <c r="H5" s="44">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="I5" s="44">
-        <v>1000</v>
-      </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44">
-        <v>4</v>
-      </c>
-      <c r="L5" s="44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="45">
-        <f>SUM(C2:C5)</f>
-        <v>51</v>
-      </c>
-      <c r="D6" s="45">
-        <f t="shared" ref="D6:L6" si="1">SUM(D2:D5)</f>
-        <v>51</v>
-      </c>
-      <c r="E6" s="45">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="F6" s="45">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="G6" s="45">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H6" s="45">
-        <f t="shared" si="1"/>
-        <v>212</v>
-      </c>
-      <c r="I6" s="45">
-        <f>SUM(I2:I5)</f>
-        <v>1000</v>
-      </c>
-      <c r="J6" s="49"/>
-      <c r="K6" s="45">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="L6" s="45">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="46">
-        <f>C6*150</f>
-        <v>7650</v>
-      </c>
-      <c r="D7" s="46">
-        <f>D6*150</f>
-        <v>7650</v>
-      </c>
-      <c r="E7" s="46">
-        <f t="shared" ref="E7:G7" si="2">E6*150</f>
-        <v>6750</v>
-      </c>
-      <c r="F7" s="46">
-        <f t="shared" si="2"/>
-        <v>5250</v>
-      </c>
-      <c r="G7" s="46">
-        <f t="shared" si="2"/>
-        <v>4500</v>
-      </c>
-      <c r="H7" s="47">
-        <f>H6/4</f>
-        <v>53</v>
-      </c>
-      <c r="I7" s="47">
-        <f>I6</f>
-        <v>1000</v>
-      </c>
-      <c r="J7" s="57">
-        <f>SUM(C7:I7)</f>
-        <v>32853</v>
-      </c>
-      <c r="K7" s="48">
-        <f>K6*25</f>
-        <v>400</v>
-      </c>
-      <c r="L7" s="44">
-        <f>L6*25</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="46">
-        <f>C6*150</f>
-        <v>7650</v>
-      </c>
-      <c r="D8" s="46">
-        <f>D6*100</f>
-        <v>5100</v>
-      </c>
-      <c r="E8" s="46">
-        <f>E6*65</f>
-        <v>2925</v>
-      </c>
-      <c r="F8" s="46">
-        <f>F6*75</f>
-        <v>2625</v>
-      </c>
-      <c r="G8" s="46">
-        <f>G6*65</f>
-        <v>1950</v>
-      </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="46">
-        <f>C8-C7</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="46">
-        <f t="shared" ref="D9:G9" si="3">D8-D7</f>
-        <v>-2550</v>
-      </c>
-      <c r="E9" s="46">
-        <f t="shared" si="3"/>
-        <v>-3825</v>
-      </c>
-      <c r="F9" s="46">
-        <f t="shared" si="3"/>
-        <v>-2625</v>
-      </c>
-      <c r="G9" s="46">
-        <f t="shared" si="3"/>
-        <v>-2550</v>
-      </c>
-      <c r="H9" s="46">
-        <f>SUM(C9:G9)*-1</f>
-        <v>11550</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="57">
-        <f>H9+C7</f>
-        <v>19200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="3">
-        <f>E18*4*48</f>
-        <v>28800</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="3">
-        <f>E19*4</f>
-        <v>115200</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60227B09-A17E-4C59-8539-66937802E414}">
   <dimension ref="A1:AN152"/>
   <sheetViews>
@@ -4199,7 +7711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF1869E-DF8F-47EF-BD78-C7B8EA061D9F}">
   <dimension ref="A1:AN152"/>
   <sheetViews>
@@ -4862,7 +8374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D54355E-7946-40B6-A32D-41CBADC6796A}">
   <dimension ref="A1:AN152"/>
   <sheetViews>
@@ -5522,1849 +9034,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB91256-52C7-4ED7-82AD-AD5C19A080A0}">
-  <dimension ref="A1:AN152"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="68.28515625" style="2" customWidth="1"/>
-    <col min="7" max="40" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:40" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3" s="61">
-        <v>45750</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-    </row>
-    <row r="4" spans="1:40" s="1" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="14"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="14"/>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="14"/>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="14"/>
-      <c r="AM4" s="14"/>
-      <c r="AN4" s="14"/>
-    </row>
-    <row r="5" spans="1:40" s="6" customFormat="1" ht="40.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="37">
-        <v>212</v>
-      </c>
-      <c r="C5" s="8">
-        <f>B5*150</f>
-        <v>31800</v>
-      </c>
-      <c r="D5" s="22">
-        <v>1000</v>
-      </c>
-      <c r="E5" s="8">
-        <f>C5+D5</f>
-        <v>32800</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-    </row>
-    <row r="6" spans="1:40" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="39">
-        <f>SUM(B5:B5)</f>
-        <v>212</v>
-      </c>
-      <c r="C6" s="11">
-        <f>SUM(C5:C5)</f>
-        <v>31800</v>
-      </c>
-      <c r="D6" s="23">
-        <f>SUM(D5:D5)</f>
-        <v>1000</v>
-      </c>
-      <c r="E6" s="11">
-        <f>C6+D6</f>
-        <v>32800</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-    </row>
-    <row r="7" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F74" s="4"/>
-    </row>
-    <row r="75" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F75" s="4"/>
-    </row>
-    <row r="76" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F76" s="4"/>
-    </row>
-    <row r="77" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F77" s="4"/>
-    </row>
-    <row r="78" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F78" s="4"/>
-    </row>
-    <row r="79" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F79" s="4"/>
-    </row>
-    <row r="80" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F80" s="4"/>
-    </row>
-    <row r="81" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F81" s="4"/>
-    </row>
-    <row r="82" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F82" s="4"/>
-    </row>
-    <row r="83" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F83" s="4"/>
-    </row>
-    <row r="84" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F84" s="4"/>
-    </row>
-    <row r="85" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F85" s="4"/>
-    </row>
-    <row r="86" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F86" s="4"/>
-    </row>
-    <row r="87" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F87" s="4"/>
-    </row>
-    <row r="88" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F88" s="4"/>
-    </row>
-    <row r="89" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F89" s="4"/>
-    </row>
-    <row r="90" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F90" s="4"/>
-    </row>
-    <row r="91" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F91" s="4"/>
-    </row>
-    <row r="92" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F92" s="4"/>
-    </row>
-    <row r="93" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F93" s="4"/>
-    </row>
-    <row r="94" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F94" s="4"/>
-    </row>
-    <row r="95" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F95" s="4"/>
-    </row>
-    <row r="96" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F96" s="4"/>
-    </row>
-    <row r="97" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F97" s="4"/>
-    </row>
-    <row r="98" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F98" s="4"/>
-    </row>
-    <row r="99" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F99" s="4"/>
-    </row>
-    <row r="100" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F100" s="4"/>
-    </row>
-    <row r="101" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F101" s="4"/>
-    </row>
-    <row r="102" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F102" s="4"/>
-    </row>
-    <row r="103" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F103" s="4"/>
-    </row>
-    <row r="104" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F104" s="4"/>
-    </row>
-    <row r="105" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F105" s="4"/>
-    </row>
-    <row r="106" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F106" s="4"/>
-    </row>
-    <row r="107" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F107" s="4"/>
-    </row>
-    <row r="108" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F108" s="4"/>
-    </row>
-    <row r="109" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F109" s="4"/>
-    </row>
-    <row r="110" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F110" s="4"/>
-    </row>
-    <row r="111" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F111" s="4"/>
-    </row>
-    <row r="112" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F112" s="4"/>
-    </row>
-    <row r="113" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F113" s="4"/>
-    </row>
-    <row r="114" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F114" s="4"/>
-    </row>
-    <row r="115" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F115" s="4"/>
-    </row>
-    <row r="116" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F116" s="4"/>
-    </row>
-    <row r="117" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F117" s="4"/>
-    </row>
-    <row r="118" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F118" s="4"/>
-    </row>
-    <row r="119" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F119" s="4"/>
-    </row>
-    <row r="120" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F120" s="4"/>
-    </row>
-    <row r="121" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F121" s="4"/>
-    </row>
-    <row r="122" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F122" s="4"/>
-    </row>
-    <row r="123" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F123" s="4"/>
-    </row>
-    <row r="124" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F124" s="4"/>
-    </row>
-    <row r="125" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F125" s="4"/>
-    </row>
-    <row r="126" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F126" s="4"/>
-    </row>
-    <row r="127" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F127" s="4"/>
-    </row>
-    <row r="128" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F128" s="4"/>
-    </row>
-    <row r="129" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F129" s="4"/>
-    </row>
-    <row r="130" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F130" s="4"/>
-    </row>
-    <row r="131" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F131" s="4"/>
-    </row>
-    <row r="132" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F132" s="4"/>
-    </row>
-    <row r="133" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F133" s="4"/>
-    </row>
-    <row r="134" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F134" s="4"/>
-    </row>
-    <row r="135" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F135" s="4"/>
-    </row>
-    <row r="136" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F136" s="4"/>
-    </row>
-    <row r="137" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F137" s="4"/>
-    </row>
-    <row r="138" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F138" s="4"/>
-    </row>
-    <row r="139" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F139" s="4"/>
-    </row>
-    <row r="140" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F140" s="4"/>
-    </row>
-    <row r="141" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F141" s="4"/>
-    </row>
-    <row r="142" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F142" s="4"/>
-    </row>
-    <row r="143" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F143" s="4"/>
-    </row>
-    <row r="144" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F144" s="4"/>
-    </row>
-    <row r="145" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F145" s="4"/>
-    </row>
-    <row r="146" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F146" s="4"/>
-    </row>
-    <row r="147" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F147" s="4"/>
-    </row>
-    <row r="148" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F148" s="4"/>
-    </row>
-    <row r="149" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F149" s="4"/>
-    </row>
-    <row r="150" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F150" s="4"/>
-    </row>
-    <row r="151" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F151" s="4"/>
-    </row>
-    <row r="152" spans="6:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F152" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC50730-173D-45A5-A218-D63A89BFD627}">
-  <dimension ref="A1:CA60"/>
-  <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:E60"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="95.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50" style="3" hidden="1" customWidth="1"/>
-    <col min="7" max="37" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="3.7109375" style="3" customWidth="1"/>
-    <col min="39" max="74" width="8.85546875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="32">
-        <v>45665</v>
-      </c>
-      <c r="C2" s="20">
-        <v>24</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="32">
-        <v>45665</v>
-      </c>
-      <c r="C3" s="20">
-        <v>16</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="32">
-        <v>45665</v>
-      </c>
-      <c r="C4" s="20">
-        <v>4</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="32">
-        <v>45665</v>
-      </c>
-      <c r="C5" s="20">
-        <v>0</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="32">
-        <v>45665</v>
-      </c>
-      <c r="C6" s="20">
-        <v>0</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="33">
-        <v>45672</v>
-      </c>
-      <c r="C7" s="24">
-        <v>24</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="33">
-        <v>45672</v>
-      </c>
-      <c r="C8" s="24">
-        <v>22</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="33">
-        <v>45672</v>
-      </c>
-      <c r="C9" s="24">
-        <v>6</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="33">
-        <v>45672</v>
-      </c>
-      <c r="C10" s="24">
-        <v>2</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="33">
-        <v>45672</v>
-      </c>
-      <c r="C11" s="24">
-        <v>0</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="25"/>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="34">
-        <v>45679</v>
-      </c>
-      <c r="C12" s="26">
-        <v>16</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="34">
-        <v>45679</v>
-      </c>
-      <c r="C13" s="26">
-        <v>19</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="34">
-        <v>45679</v>
-      </c>
-      <c r="C14" s="26">
-        <v>2</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="34">
-        <v>45679</v>
-      </c>
-      <c r="C15" s="26">
-        <v>2</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="34">
-        <v>45679</v>
-      </c>
-      <c r="C16" s="26">
-        <v>0</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="27"/>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="33">
-        <v>45679</v>
-      </c>
-      <c r="C17" s="24">
-        <v>12</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="33">
-        <v>45679</v>
-      </c>
-      <c r="C18" s="24">
-        <v>17</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="33">
-        <v>45679</v>
-      </c>
-      <c r="C19" s="24">
-        <v>2</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="33">
-        <v>45679</v>
-      </c>
-      <c r="C20" s="24">
-        <v>8</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="33">
-        <v>45679</v>
-      </c>
-      <c r="C21" s="24">
-        <v>0</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="25"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="18">
-        <f>SUM(C2:C21)</f>
-        <v>176</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
-    </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="20">
-        <v>24</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="20">
-        <v>20</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="20">
-        <v>15</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="20">
-        <v>4</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="33">
-        <v>45703</v>
-      </c>
-      <c r="C27" s="24">
-        <v>21</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="33">
-        <v>45704</v>
-      </c>
-      <c r="C28" s="24">
-        <v>7</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="33">
-        <v>45705</v>
-      </c>
-      <c r="C29" s="24">
-        <v>0</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="33">
-        <v>45706</v>
-      </c>
-      <c r="C30" s="24">
-        <v>5</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="34">
-        <v>45679</v>
-      </c>
-      <c r="C31" s="26">
-        <v>24</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="34">
-        <v>45679</v>
-      </c>
-      <c r="C32" s="26">
-        <v>7</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="34">
-        <v>45679</v>
-      </c>
-      <c r="C33" s="26">
-        <v>9</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="34">
-        <v>45679</v>
-      </c>
-      <c r="C34" s="26">
-        <v>4</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="33">
-        <v>45679</v>
-      </c>
-      <c r="C35" s="24">
-        <v>24</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="33">
-        <v>45679</v>
-      </c>
-      <c r="C36" s="24">
-        <v>8</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="33">
-        <v>45679</v>
-      </c>
-      <c r="C37" s="24">
-        <v>10</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="33">
-        <v>45679</v>
-      </c>
-      <c r="C38" s="24">
-        <v>4</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="18">
-        <f>SUM(C23:C38)</f>
-        <v>186</v>
-      </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="19"/>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="20">
-        <v>12</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="20">
-        <v>26</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="20">
-        <v>11</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="20">
-        <v>12</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="20">
-        <v>8</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="24">
-        <v>12</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="24">
-        <v>14</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="24">
-        <v>12</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="24">
-        <v>10</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A49" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="24">
-        <v>6</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="26">
-        <v>12</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="26">
-        <v>8</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="20">
-        <v>12</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="26">
-        <v>8</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" s="26">
-        <v>8</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:79" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="24">
-        <v>12</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:79" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="24">
-        <v>3</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="24">
-        <v>6</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" s="40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="24">
-        <v>8</v>
-      </c>
-      <c r="D58" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:79" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" s="24">
-        <v>12</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E59" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F59" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G59" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="H59" s="24">
-        <v>4</v>
-      </c>
-      <c r="I59" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J59" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="BW59" s="3"/>
-      <c r="BX59" s="3"/>
-      <c r="BY59" s="3"/>
-      <c r="BZ59" s="3"/>
-      <c r="CA59" s="3"/>
-    </row>
-    <row r="60" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="18">
-        <f>SUM(C40:C59)</f>
-        <v>212</v>
-      </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="19"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="B1:BV1" xr:uid="{8BC50730-173D-45A5-A218-D63A89BFD627}"/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E962D863-D586-4CE1-B627-42FFC8A5B6B6}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="70.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="28">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="28">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="28">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="28">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="28">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="28">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30">
-        <f>SUM(C1:C6)</f>
-        <v>3190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="28">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="28">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="28">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="28">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30">
-        <f>SUM(C8:C11)</f>
-        <v>1280</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>